--- a/employer-list.xlsx
+++ b/employer-list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peytonhaws/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peytonhaws/Documents/Professional Readiness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61F5113D-3A95-3E41-B740-E77D739802A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C61B600-779E-1041-9C51-39553815ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{562E9DE8-5B5C-4C5F-AE49-AF0B0BFFFC79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{562E9DE8-5B5C-4C5F-AE49-AF0B0BFFFC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Employers List" sheetId="1" r:id="rId1"/>
-    <sheet name="List" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Employers List 2" sheetId="3" r:id="rId2"/>
+    <sheet name="List" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="119">
   <si>
     <t>My Top 40 Employers</t>
   </si>
@@ -125,6 +126,273 @@
   </si>
   <si>
     <t>Square</t>
+  </si>
+  <si>
+    <t>SOURCES</t>
+  </si>
+  <si>
+    <t>LinkIn</t>
+  </si>
+  <si>
+    <t>Remote Work</t>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>Jovagency</t>
+  </si>
+  <si>
+    <t>GroupA</t>
+  </si>
+  <si>
+    <t>Rebel Systems</t>
+  </si>
+  <si>
+    <t>Key Software Systems</t>
+  </si>
+  <si>
+    <t>Box Exchange LLC</t>
+  </si>
+  <si>
+    <t>Femtosense</t>
+  </si>
+  <si>
+    <t>Gotransverse</t>
+  </si>
+  <si>
+    <t>Ruby Robotics</t>
+  </si>
+  <si>
+    <t>I.T. Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Primis</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Robert Half</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Synopsys Inc</t>
+  </si>
+  <si>
+    <t>ZoomInfo</t>
+  </si>
+  <si>
+    <t>Trimble Inc</t>
+  </si>
+  <si>
+    <t>Medpace</t>
+  </si>
+  <si>
+    <t>BECU</t>
+  </si>
+  <si>
+    <t>High Point Travel</t>
+  </si>
+  <si>
+    <t>Insito Health</t>
+  </si>
+  <si>
+    <t>Mondrian Alpha</t>
+  </si>
+  <si>
+    <t>Schreiber Foods</t>
+  </si>
+  <si>
+    <t>Phillips 66</t>
+  </si>
+  <si>
+    <t>Tata Consultancy Services</t>
+  </si>
+  <si>
+    <t>Intel Corporation</t>
+  </si>
+  <si>
+    <t>Intuitive</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>Persistent Systems, LLC</t>
+  </si>
+  <si>
+    <t>Mortenson</t>
+  </si>
+  <si>
+    <t>King's Hawaiian</t>
+  </si>
+  <si>
+    <t>TEKsystems</t>
+  </si>
+  <si>
+    <t>Qualcomm</t>
+  </si>
+  <si>
+    <t>General Atomics</t>
+  </si>
+  <si>
+    <t>Idaho National Laboratory</t>
+  </si>
+  <si>
+    <t>Travelers</t>
+  </si>
+  <si>
+    <t>Guac</t>
+  </si>
+  <si>
+    <t>Firefly Aerospace</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Teledyne FLIR</t>
+  </si>
+  <si>
+    <t>Randstad Digital</t>
+  </si>
+  <si>
+    <t>Daikin Applied Americas</t>
+  </si>
+  <si>
+    <t>Provable</t>
+  </si>
+  <si>
+    <t>Way</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Prime Video</t>
+  </si>
+  <si>
+    <t>Hays</t>
+  </si>
+  <si>
+    <t>XILO</t>
+  </si>
+  <si>
+    <t>YinzCam, Inc</t>
+  </si>
+  <si>
+    <t>Uline</t>
+  </si>
+  <si>
+    <t>MISC. Recruiting</t>
+  </si>
+  <si>
+    <t>Nightwing</t>
+  </si>
+  <si>
+    <t>RF-Smart</t>
+  </si>
+  <si>
+    <t>Sandhills Global</t>
+  </si>
+  <si>
+    <t>Minitab</t>
+  </si>
+  <si>
+    <t>Compunnel Inc.</t>
+  </si>
+  <si>
+    <t>Insight Global</t>
+  </si>
+  <si>
+    <t>Garmin</t>
+  </si>
+  <si>
+    <t>Siemens Digital Industries Software</t>
+  </si>
+  <si>
+    <t>Consultis</t>
+  </si>
+  <si>
+    <t>EPRI</t>
+  </si>
+  <si>
+    <t>MEDITECH</t>
+  </si>
+  <si>
+    <t>Biotech Partners</t>
+  </si>
+  <si>
+    <t>Trilogy International</t>
+  </si>
+  <si>
+    <t>Consumer Direct Care Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrion </t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rippling </t>
+  </si>
+  <si>
+    <t>Ignite Retail Technology</t>
+  </si>
+  <si>
+    <t>Garnet River</t>
+  </si>
+  <si>
+    <t>GPR</t>
+  </si>
+  <si>
+    <t>Cream City Cyber</t>
+  </si>
+  <si>
+    <t>VolPLy</t>
+  </si>
+  <si>
+    <t>Future Tech Enterprise, Inc</t>
+  </si>
+  <si>
+    <t>NJF Global Holdings Ltd</t>
+  </si>
+  <si>
+    <t>CrowdPlat</t>
+  </si>
+  <si>
+    <t>Reka Ai</t>
+  </si>
+  <si>
+    <t>ByteDance</t>
+  </si>
+  <si>
+    <t>Harmonia Holdings Group, LLC</t>
+  </si>
+  <si>
+    <t>Savvy Labs Inc</t>
+  </si>
+  <si>
+    <t>Jeeter - a DreamFields Brand</t>
+  </si>
+  <si>
+    <t>Fanfix</t>
+  </si>
+  <si>
+    <t>Neudesic, an IBM Company</t>
+  </si>
+  <si>
+    <t>Viasat</t>
+  </si>
+  <si>
+    <t>Auger</t>
   </si>
 </sst>
 </file>
@@ -170,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +456,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -393,12 +673,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,12 +787,73 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -703,16 +1079,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7188</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>36446</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -752,8 +1128,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>702734</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>409575</xdr:rowOff>
     </xdr:to>
@@ -794,15 +1170,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5D0A4C78-72AE-4FE9-ACA3-0E27913B1AC8}" name="Table4" displayName="Table4" ref="B7:G47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" headerRowCellStyle="Accent6">
-  <autoFilter ref="B7:G47" xr:uid="{5D0A4C78-72AE-4FE9-ACA3-0E27913B1AC8}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{28AC0DBA-5C08-4C16-A05A-757A717E33C3}" name="#" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C678B364-FDCF-4BE8-85BC-FF20E6093182}" name="COMPANY" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{87A19339-C9E4-4DDF-AFCC-992745C3BBC6}" name="LOCATION" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{488E1A8E-3381-4F87-B499-F6B8535E0DFA}" name="ALUMNI WORK THERE" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{F5069E26-B255-4B84-BB9D-5ACDA85BF43A}" name="POSITIONS AVAILABLE" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B5F07AD8-AA2A-45E8-8EBA-C9D82C6AED7F}" name="MOTIVATED TO WORK THERE" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5D0A4C78-72AE-4FE9-ACA3-0E27913B1AC8}" name="Table4" displayName="Table4" ref="B7:H1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" headerRowCellStyle="Accent6">
+  <autoFilter ref="B7:H1048576" xr:uid="{5D0A4C78-72AE-4FE9-ACA3-0E27913B1AC8}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{28AC0DBA-5C08-4C16-A05A-757A717E33C3}" name="#" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C678B364-FDCF-4BE8-85BC-FF20E6093182}" name="COMPANY" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{87A19339-C9E4-4DDF-AFCC-992745C3BBC6}" name="LOCATION" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{488E1A8E-3381-4F87-B499-F6B8535E0DFA}" name="ALUMNI WORK THERE" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F5069E26-B255-4B84-BB9D-5ACDA85BF43A}" name="POSITIONS AVAILABLE" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B5F07AD8-AA2A-45E8-8EBA-C9D82C6AED7F}" name="MOTIVATED TO WORK THERE" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CDC9D985-8E19-CB44-ADBE-2AF5F1B77647}" name="SOURCES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1105,37 +1482,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0800A5F7-71B1-4566-82FE-07DF177865F1}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" hidden="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="4" width="25" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="26.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3"/>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="15"/>
@@ -1148,8 +1551,9 @@
       <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="16"/>
@@ -1160,8 +1564,9 @@
       <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1180,8 +1585,11 @@
       <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H7" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -1200,8 +1608,11 @@
       <c r="G8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -1220,8 +1631,11 @@
       <c r="G9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -1240,8 +1654,11 @@
       <c r="G10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H10" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -1260,8 +1677,11 @@
       <c r="G11" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -1280,8 +1700,11 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H12" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1300,8 +1723,11 @@
       <c r="G13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1320,8 +1746,11 @@
       <c r="G14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H14" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>8</v>
       </c>
@@ -1340,8 +1769,11 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>9</v>
       </c>
@@ -1360,8 +1792,11 @@
       <c r="G16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H16" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <v>10</v>
       </c>
@@ -1380,310 +1815,772 @@
       <c r="G17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>13</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>15</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>16</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>17</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>18</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <v>19</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>20</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>21</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <v>22</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>23</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <v>24</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <v>25</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <v>26</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <v>27</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
         <v>28</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
         <v>29</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <v>30</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <v>31</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
         <v>32</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="4">
         <v>33</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="4">
         <v>34</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="4">
         <v>35</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="4">
         <v>36</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="4">
         <v>37</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="4">
         <v>38</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C45" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
         <v>39</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C46" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="5">
         <v>40</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2"/>
-    <row r="49" x14ac:dyDescent="0.2"/>
-    <row r="50" x14ac:dyDescent="0.2"/>
+      <c r="C47" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="6">
+        <v>3</v>
+      </c>
+      <c r="G47" s="6">
+        <v>5</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="4">
+        <v>41</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="4">
+        <v>42</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <v>43</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B1048576" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E5:E6"/>
@@ -1701,13 +2598,13 @@
           <x14:formula1>
             <xm:f>List!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E8:E47</xm:sqref>
+          <xm:sqref>E8:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A51EAB3E-4C85-49DA-8C11-617411D5A2D5}">
           <x14:formula1>
             <xm:f>List!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F8:F47</xm:sqref>
+          <xm:sqref>F8:F17 F19:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64497412-36F9-44CF-AA5B-FCF83B72A98E}">
           <x14:formula1>
@@ -1722,6 +2619,1418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5044B047-3BE8-7C4D-A4E8-6E77646504CD}">
+  <dimension ref="B5:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="2:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="37"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="2:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="27">
+        <v>44</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="27">
+        <v>3</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="33">
+        <v>45</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="33">
+        <v>3</v>
+      </c>
+      <c r="G9" s="33">
+        <v>2</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="27">
+        <v>46</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="27">
+        <v>3</v>
+      </c>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="33">
+        <v>47</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="33">
+        <v>3</v>
+      </c>
+      <c r="G11" s="33">
+        <v>4</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="27">
+        <v>48</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="27">
+        <v>3</v>
+      </c>
+      <c r="G12" s="27">
+        <v>4</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="33">
+        <v>49</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="33">
+        <v>3</v>
+      </c>
+      <c r="G13" s="33">
+        <v>4</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="27">
+        <v>50</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="27">
+        <v>3</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="33">
+        <v>51</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="33">
+        <v>3</v>
+      </c>
+      <c r="G15" s="33">
+        <v>2</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="27">
+        <v>52</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="27">
+        <v>3</v>
+      </c>
+      <c r="G16" s="27">
+        <v>3</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="33">
+        <v>53</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="33">
+        <v>3</v>
+      </c>
+      <c r="G17" s="33">
+        <v>3</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="27">
+        <v>54</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="27">
+        <v>3</v>
+      </c>
+      <c r="G18" s="27">
+        <v>4</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="33">
+        <v>55</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="33">
+        <v>3</v>
+      </c>
+      <c r="G19" s="33">
+        <v>2</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="27">
+        <v>56</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="27">
+        <v>3</v>
+      </c>
+      <c r="G20" s="27">
+        <v>4</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="33">
+        <v>57</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="33">
+        <v>3</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="27">
+        <v>58</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="27">
+        <v>3</v>
+      </c>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="33">
+        <v>59</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="33">
+        <v>2</v>
+      </c>
+      <c r="G23" s="33">
+        <v>2</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="27">
+        <v>60</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="27">
+        <v>2</v>
+      </c>
+      <c r="G24" s="27">
+        <v>2</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="33">
+        <v>61</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="33">
+        <v>3</v>
+      </c>
+      <c r="G25" s="33">
+        <v>3</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="27">
+        <v>62</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="27">
+        <v>3</v>
+      </c>
+      <c r="G26" s="27">
+        <v>1</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="33">
+        <v>63</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="33">
+        <v>3</v>
+      </c>
+      <c r="G27" s="33">
+        <v>4</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="27">
+        <v>64</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="27">
+        <v>3</v>
+      </c>
+      <c r="G28" s="27">
+        <v>4</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="33">
+        <v>65</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="33">
+        <v>3</v>
+      </c>
+      <c r="G29" s="33">
+        <v>4</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="27">
+        <v>66</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="27">
+        <v>3</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="33">
+        <v>67</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="33">
+        <v>3</v>
+      </c>
+      <c r="G31" s="33">
+        <v>3</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="27">
+        <v>68</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="27">
+        <v>2</v>
+      </c>
+      <c r="G32" s="27">
+        <v>1</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="33">
+        <v>69</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="33">
+        <v>70</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="33">
+        <v>3</v>
+      </c>
+      <c r="G34" s="33">
+        <v>2</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="27">
+        <v>71</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="27">
+        <v>3</v>
+      </c>
+      <c r="G35" s="27">
+        <v>2</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="33">
+        <v>72</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="33">
+        <v>2</v>
+      </c>
+      <c r="G36" s="33">
+        <v>2</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="27">
+        <v>73</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="27">
+        <v>3</v>
+      </c>
+      <c r="G37" s="27">
+        <v>3</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="33">
+        <v>74</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="33">
+        <v>3</v>
+      </c>
+      <c r="G38" s="33">
+        <v>2</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="27">
+        <v>75</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="27">
+        <v>2</v>
+      </c>
+      <c r="G39" s="27">
+        <v>1</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="33">
+        <v>76</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="33">
+        <v>1</v>
+      </c>
+      <c r="G40" s="33">
+        <v>1</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="27">
+        <v>77</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="27">
+        <v>2</v>
+      </c>
+      <c r="G41" s="27">
+        <v>2</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="33">
+        <v>78</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="33">
+        <v>3</v>
+      </c>
+      <c r="G42" s="33">
+        <v>3</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="27">
+        <v>79</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="27">
+        <v>3</v>
+      </c>
+      <c r="G43" s="27">
+        <v>3</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="33">
+        <v>80</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="33">
+        <v>3</v>
+      </c>
+      <c r="G44" s="33">
+        <v>4</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="27">
+        <v>81</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="27">
+        <v>3</v>
+      </c>
+      <c r="G45" s="27">
+        <v>4</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="33">
+        <v>82</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="33">
+        <v>3</v>
+      </c>
+      <c r="G46" s="33">
+        <v>3</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" s="27">
+        <v>83</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="27">
+        <v>3</v>
+      </c>
+      <c r="G47" s="27">
+        <v>2</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="33">
+        <v>84</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="33">
+        <v>3</v>
+      </c>
+      <c r="G48" s="33">
+        <v>2</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="27">
+        <v>85</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="27">
+        <v>2</v>
+      </c>
+      <c r="G49" s="27">
+        <v>2</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="33">
+        <v>86</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="33">
+        <v>2</v>
+      </c>
+      <c r="G50" s="33">
+        <v>1</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="27">
+        <v>87</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="27">
+        <v>3</v>
+      </c>
+      <c r="G51" s="27">
+        <v>3</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="33">
+        <v>88</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="33">
+        <v>2</v>
+      </c>
+      <c r="G52" s="33">
+        <v>2</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" s="27">
+        <v>89</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="27">
+        <v>2</v>
+      </c>
+      <c r="G53" s="27">
+        <v>1</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="33">
+        <v>90</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="33">
+        <v>3</v>
+      </c>
+      <c r="G54" s="33">
+        <v>3</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" s="27">
+        <v>91</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="27">
+        <v>3</v>
+      </c>
+      <c r="G55" s="27">
+        <v>3</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B56" s="33">
+        <v>92</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="33">
+        <v>2</v>
+      </c>
+      <c r="G56" s="33">
+        <v>2</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" s="27">
+        <v>93</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="27">
+        <v>3</v>
+      </c>
+      <c r="G57" s="27">
+        <v>4</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B58" s="33">
+        <v>94</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="33">
+        <v>3</v>
+      </c>
+      <c r="G58" s="33">
+        <v>2</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" s="27">
+        <v>95</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="27">
+        <v>3</v>
+      </c>
+      <c r="G59" s="27">
+        <v>2</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B60" s="33">
+        <v>96</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="33">
+        <v>2</v>
+      </c>
+      <c r="G60" s="33">
+        <v>1</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B61" s="27">
+        <v>97</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="27">
+        <v>3</v>
+      </c>
+      <c r="G61" s="27">
+        <v>3</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B62" s="33">
+        <v>98</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="33">
+        <v>2</v>
+      </c>
+      <c r="G62" s="33">
+        <v>2</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B63" s="27">
+        <v>99</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="27">
+        <v>3</v>
+      </c>
+      <c r="G63" s="27">
+        <v>4</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B64" s="33">
+        <v>100</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="33">
+        <v>3</v>
+      </c>
+      <c r="G64" s="33">
+        <v>4</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{081B916E-1F3E-4D44-A05C-4E18D7732534}">
+          <x14:formula1>
+            <xm:f>List!$D$2:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G8:G64</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEB95F64-354E-8549-9209-7558FE3D88A4}">
+          <x14:formula1>
+            <xm:f>List!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F8:F64</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{805CE4FA-0165-5049-8655-82FE5254FBB4}">
+          <x14:formula1>
+            <xm:f>List!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E8:E64</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93E8542-2049-4C7C-B329-35F20B6D2F0E}">
   <dimension ref="B1:D6"/>
   <sheetViews>
@@ -1793,21 +4102,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100613307B644C42A4A8AD20D8EC0F95F6A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c776b1a47c0d6ba2e58342727aa4370">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b756b822-2819-4429-9bd0-9c50ba0cea97" xmlns:ns3="dbc13c3b-da03-4517-9641-acc8a854161b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64daea3f731da23ff1f7212a3d611aa5" ns2:_="" ns3:_="">
     <xsd:import namespace="b756b822-2819-4429-9bd0-9c50ba0cea97"/>
@@ -2024,24 +4318,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3698325D-50E0-4EB4-B741-3923B27B2024}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724776EF-A9D6-4DA4-B007-122C59E1083D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B759E4-FA9D-4E5E-9453-6467D7A6061D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2058,4 +4350,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724776EF-A9D6-4DA4-B007-122C59E1083D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3698325D-50E0-4EB4-B741-3923B27B2024}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>